--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/VF-ICDVersion.xlsx
+++ b/docs/VF-ICDVersion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
